--- a/src/test/data/inputs/link.xlsx
+++ b/src/test/data/inputs/link.xlsx
@@ -27,10 +27,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サンプル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クラス名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -46,235 +42,242 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sdpj.scone.generated</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>インポート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動生成のサンプルクラスです。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティ日本語名</t>
+    <rPh sb="5" eb="8">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期値</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filePath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名日本語</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileNameJp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル有無フラグ</t>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileExistFlag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Boolean.TRUE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行情報</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lines</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>List&lt;LineBean&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>new ArrayList&lt;&gt;()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filePath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>notnull</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileExistFlag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maxlength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kana</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>java.io.Serializable
 java.util.List
 java.util.ArrayList
-sdpj.scone.generated.LineBean</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自動生成のサンプルクラスです。</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロパティ日本語名</t>
-    <rPh sb="5" eb="8">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロパティ名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>型</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>初期値</t>
-    <rPh sb="0" eb="3">
-      <t>ショキチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイルパス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>filePath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fileName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル名日本語</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニホンゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fileNameJp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル有無フラグ</t>
-    <rPh sb="4" eb="6">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fileExistFlag</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Boolean.TRUE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>行情報</t>
-    <rPh sb="0" eb="1">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>lines</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>List&lt;LineBean&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>new ArrayList&lt;&gt;()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サンプル(バリデーション)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイルパス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>filePath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>notnull</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fileName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fileExistFlag</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>maxlength</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kana</t>
+com.purejadeite.generated.LineBean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.purejadeite.generated</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シート間のリンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シート間のリンク(リンク先)</t>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -476,6 +479,15 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,12 +503,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,9 +511,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,7 +809,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,64 +824,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="68.25" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="68.25" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>
@@ -890,22 +893,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -913,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -929,16 +932,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -947,16 +950,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -965,16 +968,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -983,16 +986,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,46 +1038,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
@@ -1088,76 +1091,76 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1166,16 +1169,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1184,16 +1187,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1202,19 +1205,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1222,16 +1225,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
